--- a/EDA/feature_summery/hypertention_cutoff/delta interaction EDA multiple Features outer merge KNN imputation.xlsx
+++ b/EDA/feature_summery/hypertention_cutoff/delta interaction EDA multiple Features outer merge KNN imputation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\‏‏PycharmProjects\PTSD\EDA\feature_summery\hypertention_cutoff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63561D7E-9F91-44DD-B919-724FA9EF9D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A0ED0-1D31-4ACF-BBAB-3E86AA4D7513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44828,7 +44828,7 @@
   <dimension ref="A1:C4950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -99292,5 +99292,6 @@
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>